--- a/projects/Alicia-samples/sample_list.xlsx
+++ b/projects/Alicia-samples/sample_list.xlsx
@@ -8,13 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/Alicia-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FD8F8B6-125A-954B-9B63-9DE482CCD2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C947A8-E749-0741-AD2F-4AEFF152159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3500" yWindow="4640" windowWidth="25300" windowHeight="13360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="146">
   <si>
     <t>sample_name_unique</t>
   </si>
@@ -461,15 +460,6 @@
   </si>
   <si>
     <t>2023-06-06/P12_T_R2.fastq.bz2</t>
-  </si>
-  <si>
-    <t>P01</t>
-  </si>
-  <si>
-    <t>Conc. not measured</t>
-  </si>
-  <si>
-    <t>P02</t>
   </si>
   <si>
     <t>D704</t>
@@ -843,7 +833,7 @@
   <dimension ref="A1:M83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I87" sqref="I87"/>
+      <selection activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1206,7 +1196,7 @@
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
@@ -1247,7 +1237,7 @@
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>19</v>
@@ -1288,7 +1278,7 @@
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>26</v>
@@ -1329,7 +1319,7 @@
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>21</v>
@@ -1370,7 +1360,7 @@
         <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>22</v>
@@ -1411,7 +1401,7 @@
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>27</v>
@@ -1452,7 +1442,7 @@
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>23</v>
@@ -1493,7 +1483,7 @@
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>24</v>
@@ -2518,7 +2508,7 @@
         <v>20</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
@@ -2559,7 +2549,7 @@
         <v>20</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>19</v>
@@ -2600,7 +2590,7 @@
         <v>20</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>26</v>
@@ -2641,7 +2631,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>21</v>
@@ -2682,7 +2672,7 @@
         <v>20</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>22</v>
@@ -2723,7 +2713,7 @@
         <v>20</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>27</v>
@@ -2764,7 +2754,7 @@
         <v>20</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>23</v>
@@ -2805,7 +2795,7 @@
         <v>20</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>24</v>
@@ -3707,7 +3697,7 @@
         <v>28</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>15</v>
@@ -3748,7 +3738,7 @@
         <v>28</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>19</v>
@@ -3789,7 +3779,7 @@
         <v>28</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>26</v>
@@ -3830,7 +3820,7 @@
         <v>28</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>21</v>
@@ -3871,7 +3861,7 @@
         <v>28</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>27</v>
@@ -3912,7 +3902,7 @@
         <v>28</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>23</v>
@@ -3953,7 +3943,7 @@
         <v>28</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>24</v>
@@ -4266,357 +4256,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B586C368-1179-5345-8A8E-1907D723DA69}">
-  <dimension ref="C3:J51"/>
-  <sheetViews>
-    <sheetView topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51:J51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="3" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C3" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" s="2">
-        <v>15.3</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3.92</v>
-      </c>
-      <c r="F3" s="2">
-        <v>6.08</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C7" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="D7" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4.74</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C11" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D11" s="2">
-        <v>15.5</v>
-      </c>
-      <c r="E11" s="2">
-        <v>3.87</v>
-      </c>
-      <c r="F11" s="2">
-        <v>6.13</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C15" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="E15" s="2">
-        <v>5.61</v>
-      </c>
-      <c r="F15" s="2">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="D19" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="E19" s="2">
-        <v>5.56</v>
-      </c>
-      <c r="F19" s="2">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C23" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="2">
-        <v>11.4</v>
-      </c>
-      <c r="E23" s="2">
-        <v>5.26</v>
-      </c>
-      <c r="F23" s="2">
-        <v>4.74</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C27" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="D27" s="2">
-        <v>10</v>
-      </c>
-      <c r="E27" s="2">
-        <v>6</v>
-      </c>
-      <c r="F27" s="2">
-        <v>4</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C31" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="2">
-        <v>9.8000000000000007</v>
-      </c>
-      <c r="E31" s="2">
-        <v>6.12</v>
-      </c>
-      <c r="F31" s="2">
-        <v>3.88</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="35" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C35" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="D35" s="2">
-        <v>10.8</v>
-      </c>
-      <c r="E35" s="2">
-        <v>5.56</v>
-      </c>
-      <c r="F35" s="2">
-        <v>4.4400000000000004</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" s="2">
-        <v>11</v>
-      </c>
-      <c r="E39" s="2">
-        <v>5.45</v>
-      </c>
-      <c r="F39" s="2">
-        <v>4.55</v>
-      </c>
-      <c r="G39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C43" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D43" s="2">
-        <v>10.7</v>
-      </c>
-      <c r="E43" s="2">
-        <v>5.61</v>
-      </c>
-      <c r="F43" s="2">
-        <v>4.3899999999999997</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J43" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="47" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C47" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D47" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>4.92</v>
-      </c>
-      <c r="F47" s="2">
-        <v>5.08</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="3:10" x14ac:dyDescent="0.2">
-      <c r="C51" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D51" s="2">
-        <v>12.2</v>
-      </c>
-      <c r="E51" s="2">
-        <v>4.92</v>
-      </c>
-      <c r="F51" s="2">
-        <v>5.08</v>
-      </c>
-      <c r="G51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="H51" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="J51" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/projects/Alicia-samples/sample_list.xlsx
+++ b/projects/Alicia-samples/sample_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/tRNA-charge-seq/projects/Alicia-samples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C947A8-E749-0741-AD2F-4AEFF152159B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A5F529-6B5B-2448-AF82-986C2E2C50E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3500" yWindow="4640" windowWidth="25300" windowHeight="13360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1360" yWindow="4440" windowWidth="25300" windowHeight="13360" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="157">
   <si>
     <t>sample_name_unique</t>
   </si>
@@ -78,9 +78,6 @@
     <t>human</t>
   </si>
   <si>
-    <t>Percent charge</t>
-  </si>
-  <si>
     <t>D703</t>
   </si>
   <si>
@@ -114,9 +111,6 @@
     <t>D503</t>
   </si>
   <si>
-    <t>D504</t>
-  </si>
-  <si>
     <t>A01</t>
   </si>
   <si>
@@ -342,36 +336,6 @@
     <t>A76</t>
   </si>
   <si>
-    <t>P03</t>
-  </si>
-  <si>
-    <t>P04</t>
-  </si>
-  <si>
-    <t>P05</t>
-  </si>
-  <si>
-    <t>P06</t>
-  </si>
-  <si>
-    <t>P07</t>
-  </si>
-  <si>
-    <t>P08</t>
-  </si>
-  <si>
-    <t>P09</t>
-  </si>
-  <si>
-    <t>P10</t>
-  </si>
-  <si>
-    <t>P11</t>
-  </si>
-  <si>
-    <t>P12</t>
-  </si>
-  <si>
     <t>2023-06-06/P03_R2.fastq.bz2</t>
   </si>
   <si>
@@ -432,37 +396,106 @@
     <t>2023-06-06/P12_R1.fastq.bz2</t>
   </si>
   <si>
-    <t>A70_T</t>
-  </si>
-  <si>
-    <t>A71_T</t>
-  </si>
-  <si>
-    <t>A72_T</t>
-  </si>
-  <si>
-    <t>A73_T</t>
-  </si>
-  <si>
-    <t>A74_T</t>
-  </si>
-  <si>
-    <t>A75_T</t>
-  </si>
-  <si>
-    <t>A76_T</t>
-  </si>
-  <si>
-    <t>P12_T</t>
-  </si>
-  <si>
-    <t>2023-06-06/P12_T_R1.fastq.bz2</t>
-  </si>
-  <si>
-    <t>2023-06-06/P12_T_R2.fastq.bz2</t>
-  </si>
-  <si>
     <t>D704</t>
+  </si>
+  <si>
+    <t>Genotype-Time-Drug</t>
+  </si>
+  <si>
+    <t>293T-cys</t>
+  </si>
+  <si>
+    <t>293T-sergly</t>
+  </si>
+  <si>
+    <t>293T-met</t>
+  </si>
+  <si>
+    <t>293T-lys</t>
+  </si>
+  <si>
+    <t>293T-his</t>
+  </si>
+  <si>
+    <t>293T-tyr</t>
+  </si>
+  <si>
+    <t>293T-phe</t>
+  </si>
+  <si>
+    <t>293T-cys @&amp;@ 293T-sergly @&amp;@ 293T-met @&amp;@ 293T-lys @&amp;@ 293T-his @&amp;@ 293T-tyr @&amp;@ 293T-phe</t>
+  </si>
+  <si>
+    <t>WT-0</t>
+  </si>
+  <si>
+    <t>WT-6</t>
+  </si>
+  <si>
+    <t>WT-48</t>
+  </si>
+  <si>
+    <t>WT-48-ferro</t>
+  </si>
+  <si>
+    <t>WT-6-rot</t>
+  </si>
+  <si>
+    <t>WT-48-rot</t>
+  </si>
+  <si>
+    <t>WT-24</t>
+  </si>
+  <si>
+    <t>GCN2-0</t>
+  </si>
+  <si>
+    <t>GCN2-6</t>
+  </si>
+  <si>
+    <t>GCN2-48</t>
+  </si>
+  <si>
+    <t>GCN2-6-ferro</t>
+  </si>
+  <si>
+    <t>GCN2-48-ferro</t>
+  </si>
+  <si>
+    <t>GCN2-6-rot</t>
+  </si>
+  <si>
+    <t>GCN2-48-rot</t>
+  </si>
+  <si>
+    <t>GCN2-24</t>
+  </si>
+  <si>
+    <t>WT-6-ferro</t>
+  </si>
+  <si>
+    <t>HCT-cys</t>
+  </si>
+  <si>
+    <t>HCT-sergly</t>
+  </si>
+  <si>
+    <t>HCT-met</t>
+  </si>
+  <si>
+    <t>HCT-lys</t>
+  </si>
+  <si>
+    <t>HCT-his</t>
+  </si>
+  <si>
+    <t>HCT-tyr</t>
+  </si>
+  <si>
+    <t>HCT-phe</t>
+  </si>
+  <si>
+    <t>HCT-cys @&amp;@ HCT-sergly @&amp;@ HCT-met @&amp;@ HCT-lys @&amp;@ HCT-his @&amp;@ HCT-tyr @&amp;@ HCT-phe</t>
   </si>
 </sst>
 </file>
@@ -832,8 +865,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B86" sqref="B86"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.5" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -844,8 +877,11 @@
     <col min="5" max="5" width="25.83203125" bestFit="1" customWidth="1"/>
     <col min="6" max="7" width="8.6640625" customWidth="1"/>
     <col min="8" max="8" width="8.33203125" customWidth="1"/>
-    <col min="9" max="10" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="21" customWidth="1"/>
+    <col min="11" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="17" x14ac:dyDescent="0.2">
@@ -891,25 +927,25 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -918,13 +954,13 @@
         <v>16</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>105</v>
+        <v>132</v>
       </c>
       <c r="K2" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>30</v>
+        <v>133</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -932,271 +968,271 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K3" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>31</v>
+        <v>134</v>
       </c>
       <c r="M3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>33</v>
+        <v>136</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I6" t="s">
         <v>16</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>34</v>
+        <v>134</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I7" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K7" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="M7">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I8" t="s">
         <v>16</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K8" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>36</v>
+        <v>137</v>
       </c>
       <c r="M8">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>15</v>
@@ -1205,323 +1241,323 @@
         <v>16</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="K9" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>37</v>
+        <v>138</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10">
         <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I10" t="s">
         <v>16</v>
       </c>
       <c r="J10" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>38</v>
+        <v>134</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I11" t="s">
         <v>16</v>
       </c>
       <c r="J11" s="2" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="K11" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="M11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C12">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E12" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I12" t="s">
         <v>16</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="K12" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>40</v>
+        <v>134</v>
       </c>
       <c r="M12">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E13" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
         <v>16</v>
       </c>
       <c r="J13" s="2" t="s">
-        <v>106</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>41</v>
+        <v>135</v>
       </c>
       <c r="M13">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E14" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" t="s">
         <v>16</v>
       </c>
       <c r="J14" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K14" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>42</v>
+        <v>134</v>
       </c>
       <c r="M14">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15">
         <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E15" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
         <v>16</v>
       </c>
       <c r="J15" s="2" t="s">
-        <v>106</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>43</v>
+        <v>139</v>
       </c>
       <c r="M15">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="E16" t="s">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>13</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
         <v>16</v>
       </c>
       <c r="J16" s="2" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="K16" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>44</v>
+        <v>134</v>
       </c>
       <c r="M16">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>14</v>
@@ -1533,326 +1569,326 @@
         <v>16</v>
       </c>
       <c r="J17" s="2" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="K17" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="M17">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
         <v>16</v>
       </c>
       <c r="J18" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="K18" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L18" s="2" t="s">
-        <v>46</v>
+        <v>134</v>
       </c>
       <c r="M18">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I19" t="s">
         <v>16</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>47</v>
+        <v>139</v>
       </c>
       <c r="M19">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
         <v>16</v>
       </c>
       <c r="J20" s="2" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L20" s="2" t="s">
-        <v>48</v>
+        <v>140</v>
       </c>
       <c r="M20">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E21" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
         <v>16</v>
       </c>
       <c r="J21" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L21" s="2" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="M21">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I22" t="s">
         <v>16</v>
       </c>
       <c r="J22" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K22" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L22" s="2" t="s">
-        <v>50</v>
+        <v>142</v>
       </c>
       <c r="M22">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K23" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L23" s="2" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="M23">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>127</v>
+        <v>115</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I24" t="s">
         <v>16</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L24" s="2" t="s">
-        <v>52</v>
+        <v>144</v>
       </c>
       <c r="M24">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E25" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>15</v>
@@ -1861,326 +1897,326 @@
         <v>16</v>
       </c>
       <c r="J25" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L25" s="2" t="s">
-        <v>53</v>
+        <v>141</v>
       </c>
       <c r="M25">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E26" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I26" t="s">
         <v>16</v>
       </c>
       <c r="J26" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L26" s="2" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="M26">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E27" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I27" t="s">
         <v>16</v>
       </c>
       <c r="J27" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K27" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L27" s="2" t="s">
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="M27">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E28" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I28" t="s">
         <v>16</v>
       </c>
       <c r="J28" s="2" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L28" s="2" t="s">
-        <v>56</v>
+        <v>146</v>
       </c>
       <c r="M28">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E29" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" t="s">
         <v>16</v>
       </c>
       <c r="J29" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K29" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="M29">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>128</v>
+        <v>116</v>
       </c>
       <c r="E30" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I30" t="s">
         <v>16</v>
       </c>
       <c r="J30" s="2" t="s">
-        <v>108</v>
+        <v>127</v>
       </c>
       <c r="K30" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L30" s="2" t="s">
-        <v>58</v>
+        <v>142</v>
       </c>
       <c r="M30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
       <c r="D31" t="s">
+        <v>116</v>
+      </c>
+      <c r="E31" t="s">
+        <v>106</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I31" t="s">
+        <v>16</v>
+      </c>
+      <c r="J31" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E31" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" t="s">
-        <v>16</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="K31" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L31" s="2" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="M31">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
       <c r="D32" t="s">
+        <v>116</v>
+      </c>
+      <c r="E32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E32" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" t="s">
-        <v>16</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="K32" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L32" s="2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E33" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>15</v>
@@ -2189,259 +2225,259 @@
         <v>16</v>
       </c>
       <c r="J33" s="2" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K33" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L33" s="2" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="M33">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
       <c r="D34" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="E34" t="s">
-        <v>119</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I34" t="s">
-        <v>16</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>109</v>
-      </c>
       <c r="K34" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L34" s="2" t="s">
-        <v>62</v>
+        <v>147</v>
       </c>
       <c r="M34">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E35" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I35" t="s">
         <v>16</v>
       </c>
       <c r="J35" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K35" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L35" s="2" t="s">
-        <v>63</v>
+        <v>141</v>
       </c>
       <c r="M35">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E36" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F36" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I36" t="s">
         <v>16</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="K36" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>64</v>
+        <v>147</v>
       </c>
       <c r="M36">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" t="s">
         <v>16</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K37" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="M37">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E38" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I38" t="s">
         <v>16</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>109</v>
+        <v>131</v>
       </c>
       <c r="K38" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L38" s="2" t="s">
-        <v>66</v>
+        <v>147</v>
       </c>
       <c r="M38">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39">
         <v>1</v>
       </c>
       <c r="D39" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E39" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I39" t="s">
         <v>16</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>109</v>
+        <v>156</v>
       </c>
       <c r="K39" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L39" s="2" t="s">
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="M39">
         <v>1</v>
@@ -2449,66 +2485,66 @@
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>129</v>
+        <v>117</v>
       </c>
       <c r="E40" t="s">
-        <v>119</v>
+        <v>107</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I40" t="s">
         <v>16</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="K40" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L40" s="2" t="s">
-        <v>68</v>
+        <v>134</v>
       </c>
       <c r="M40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
       <c r="D41" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E41" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>15</v>
@@ -2517,323 +2553,323 @@
         <v>16</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="K41" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L41" s="2" t="s">
-        <v>69</v>
+        <v>135</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
       <c r="D42" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I42" t="s">
         <v>16</v>
       </c>
       <c r="J42" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="K42" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L42" s="2" t="s">
-        <v>70</v>
+        <v>148</v>
       </c>
       <c r="M42">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
       <c r="D43" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E43" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I43" t="s">
         <v>16</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>110</v>
+        <v>149</v>
       </c>
       <c r="K43" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L43" s="2" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
       <c r="M43">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E44" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F44" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G44" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I44" t="s">
         <v>16</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K44" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L44" s="2" t="s">
-        <v>72</v>
+        <v>134</v>
       </c>
       <c r="M44">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
       <c r="D45" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E45" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
         <v>16</v>
       </c>
       <c r="J45" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K45" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L45" s="2" t="s">
-        <v>73</v>
+        <v>135</v>
       </c>
       <c r="M45">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
       <c r="D46" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E46" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I46" t="s">
         <v>16</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K46" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L46" s="2" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
       <c r="M46">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E47" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I47" t="s">
         <v>16</v>
       </c>
       <c r="J47" s="2" t="s">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="K47" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L47" s="2" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
       <c r="M47">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
       <c r="D48" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
       <c r="E48" t="s">
-        <v>120</v>
+        <v>108</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I48" t="s">
         <v>16</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>110</v>
+        <v>151</v>
       </c>
       <c r="K48" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L48" s="2" t="s">
-        <v>76</v>
+        <v>134</v>
       </c>
       <c r="M48">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E49" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G49" s="2" t="s">
         <v>14</v>
@@ -2845,285 +2881,285 @@
         <v>16</v>
       </c>
       <c r="J49" s="2" t="s">
-        <v>111</v>
+        <v>151</v>
       </c>
       <c r="K49" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L49" s="2" t="s">
-        <v>77</v>
+        <v>135</v>
       </c>
       <c r="M49">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
       <c r="D50" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E50" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G50" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I50" t="s">
         <v>16</v>
       </c>
       <c r="J50" s="2" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="K50" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L50" s="2" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
       <c r="D51" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G51" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I51" t="s">
         <v>16</v>
       </c>
       <c r="J51" s="2" t="s">
-        <v>111</v>
+        <v>152</v>
       </c>
       <c r="K51" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L51" s="2" t="s">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="M51">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C52">
         <v>1</v>
       </c>
       <c r="D52" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E52" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G52" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I52" t="s">
         <v>16</v>
       </c>
       <c r="J52" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="K52" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L52" s="2" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="M52">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C53">
         <v>1</v>
       </c>
       <c r="D53" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E53" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G53" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I53" t="s">
         <v>16</v>
       </c>
       <c r="J53" s="2" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="K53" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L53" s="2" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="M53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
       <c r="D54" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E54" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G54" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I54" t="s">
         <v>16</v>
       </c>
       <c r="J54" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="K54" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L54" s="2" t="s">
-        <v>82</v>
+        <v>134</v>
       </c>
       <c r="M54">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
       <c r="D55" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="E55" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G55" s="2" t="s">
         <v>14</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
       </c>
       <c r="J55" s="2" t="s">
-        <v>111</v>
+        <v>154</v>
       </c>
       <c r="K55" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L55" s="2" t="s">
-        <v>83</v>
+        <v>135</v>
       </c>
       <c r="M55">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
       <c r="D56" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E56" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>15</v>
@@ -3132,285 +3168,285 @@
         <v>16</v>
       </c>
       <c r="J56" s="2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="K56" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L56" s="2" t="s">
-        <v>84</v>
+        <v>134</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
       <c r="D57" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E57" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I57" t="s">
         <v>16</v>
       </c>
       <c r="J57" s="2" t="s">
-        <v>112</v>
+        <v>155</v>
       </c>
       <c r="K57" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L57" s="2" t="s">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="M57">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
       <c r="D58" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E58" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G58" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H58" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H58" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="I58" t="s">
         <v>16</v>
       </c>
       <c r="J58" s="2" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="K58" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L58" s="2" t="s">
-        <v>86</v>
+        <v>140</v>
       </c>
       <c r="M58">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
       <c r="D59" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I59" t="s">
         <v>16</v>
       </c>
       <c r="J59" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K59" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L59" s="2" t="s">
-        <v>87</v>
+        <v>141</v>
       </c>
       <c r="M59">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
       <c r="D60" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
         <v>16</v>
       </c>
       <c r="J60" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K60" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L60" s="2" t="s">
-        <v>88</v>
+        <v>142</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
       <c r="D61" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E61" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
       </c>
       <c r="J61" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K61" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L61" s="2" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="M61">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
       <c r="D62" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="E62" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I62" t="s">
         <v>16</v>
       </c>
       <c r="J62" s="2" t="s">
-        <v>112</v>
+        <v>149</v>
       </c>
       <c r="K62" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L62" s="2" t="s">
-        <v>90</v>
+        <v>144</v>
       </c>
       <c r="M62">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
       <c r="D63" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>15</v>
@@ -3419,285 +3455,285 @@
         <v>16</v>
       </c>
       <c r="J63" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="K63" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L63" s="2" t="s">
-        <v>91</v>
+        <v>141</v>
       </c>
       <c r="M63">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
       <c r="D64" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="I64" t="s">
         <v>16</v>
       </c>
       <c r="J64" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="K64" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L64" s="2" t="s">
-        <v>92</v>
+        <v>142</v>
       </c>
       <c r="M64">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C65">
         <v>1</v>
       </c>
       <c r="D65" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E65" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I65" t="s">
         <v>16</v>
       </c>
       <c r="J65" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="K65" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L65" s="2" t="s">
-        <v>93</v>
+        <v>145</v>
       </c>
       <c r="M65">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
       <c r="D66" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E66" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I66" t="s">
         <v>16</v>
       </c>
       <c r="J66" s="2" t="s">
-        <v>113</v>
+        <v>150</v>
       </c>
       <c r="K66" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L66" s="2" t="s">
-        <v>94</v>
+        <v>146</v>
       </c>
       <c r="M66">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
       <c r="D67" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E67" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
         <v>16</v>
       </c>
       <c r="J67" s="2" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="K67" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L67" s="2" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
       <c r="D68" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E68" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I68" t="s">
         <v>16</v>
       </c>
       <c r="J68" s="2" t="s">
-        <v>113</v>
+        <v>151</v>
       </c>
       <c r="K68" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L68" s="2" t="s">
-        <v>96</v>
+        <v>142</v>
       </c>
       <c r="M68">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
       <c r="D69" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="E69" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I69" t="s">
         <v>16</v>
       </c>
       <c r="J69" s="2" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="K69" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L69" s="2" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E70" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>15</v>
@@ -3706,550 +3742,325 @@
         <v>16</v>
       </c>
       <c r="J70" s="2" t="s">
-        <v>114</v>
+        <v>152</v>
       </c>
       <c r="K70" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L70" s="2" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E71" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I71" t="s">
         <v>16</v>
       </c>
       <c r="J71" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="K71" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L71" s="2" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="M71">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E72" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I72" t="s">
         <v>16</v>
       </c>
       <c r="J72" s="2" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="K72" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L72" s="2" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="M72">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E73" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I73" t="s">
         <v>16</v>
       </c>
       <c r="J73" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="K73" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L73" s="2" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="M73">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E74" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I74" t="s">
         <v>16</v>
       </c>
       <c r="J74" s="2" t="s">
-        <v>114</v>
+        <v>154</v>
       </c>
       <c r="K74" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L74" s="2" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C75">
         <v>1</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E75" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I75" t="s">
         <v>16</v>
       </c>
       <c r="J75" s="2" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="K75" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L75" s="2" t="s">
-        <v>103</v>
+        <v>141</v>
       </c>
       <c r="M75">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="E76" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I76" t="s">
         <v>16</v>
       </c>
       <c r="J76" s="2" t="s">
-        <v>114</v>
+        <v>155</v>
       </c>
       <c r="K76" t="s">
-        <v>17</v>
+        <v>124</v>
       </c>
       <c r="L76" s="2" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="M76">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C77">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>143</v>
-      </c>
-      <c r="E77" t="s">
-        <v>144</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I77" t="s">
-        <v>16</v>
-      </c>
-      <c r="J77" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K77" t="s">
-        <v>17</v>
-      </c>
-      <c r="L77" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="M77">
-        <v>1</v>
-      </c>
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="L77" s="2"/>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="C78">
-        <v>1</v>
-      </c>
-      <c r="D78" t="s">
-        <v>143</v>
-      </c>
-      <c r="E78" t="s">
-        <v>144</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="I78" t="s">
-        <v>16</v>
-      </c>
-      <c r="J78" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K78" t="s">
-        <v>17</v>
-      </c>
-      <c r="L78" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="M78">
-        <v>1</v>
-      </c>
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="L78" s="2"/>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C79">
-        <v>1</v>
-      </c>
-      <c r="D79" t="s">
-        <v>143</v>
-      </c>
-      <c r="E79" t="s">
-        <v>144</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I79" t="s">
-        <v>16</v>
-      </c>
-      <c r="J79" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K79" t="s">
-        <v>17</v>
-      </c>
-      <c r="L79" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="M79">
-        <v>1</v>
-      </c>
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="2"/>
+      <c r="H79" s="2"/>
+      <c r="J79" s="2"/>
+      <c r="L79" s="2"/>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C80">
-        <v>1</v>
-      </c>
-      <c r="D80" t="s">
-        <v>143</v>
-      </c>
-      <c r="E80" t="s">
-        <v>144</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I80" t="s">
-        <v>16</v>
-      </c>
-      <c r="J80" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K80" t="s">
-        <v>17</v>
-      </c>
-      <c r="L80" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="M80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C81">
-        <v>1</v>
-      </c>
-      <c r="D81" t="s">
-        <v>143</v>
-      </c>
-      <c r="E81" t="s">
-        <v>144</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I81" t="s">
-        <v>16</v>
-      </c>
-      <c r="J81" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K81" t="s">
-        <v>17</v>
-      </c>
-      <c r="L81" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="M81">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C82">
-        <v>1</v>
-      </c>
-      <c r="D82" t="s">
-        <v>143</v>
-      </c>
-      <c r="E82" t="s">
-        <v>144</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I82" t="s">
-        <v>16</v>
-      </c>
-      <c r="J82" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K82" t="s">
-        <v>17</v>
-      </c>
-      <c r="L82" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="M82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C83">
-        <v>1</v>
-      </c>
-      <c r="D83" t="s">
-        <v>143</v>
-      </c>
-      <c r="E83" t="s">
-        <v>144</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I83" t="s">
-        <v>16</v>
-      </c>
-      <c r="J83" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="K83" t="s">
-        <v>17</v>
-      </c>
-      <c r="L83" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="M83">
-        <v>1</v>
-      </c>
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2"/>
+      <c r="H80" s="2"/>
+      <c r="J80" s="2"/>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+      <c r="J81" s="2"/>
+      <c r="L81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="L83" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
